--- a/DATA SAMPLE/Upload Teacher.xlsx
+++ b/DATA SAMPLE/Upload Teacher.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Medi-Caps  AMS\DATA SAMPLE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New AMS\DATA SAMPLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DEB8B4-A7C6-435B-BD0A-2D62EAEC7D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE7B57F-9CF7-4A27-9264-DA1DF4680216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>teacher_id</t>
   </si>
@@ -39,27 +39,18 @@
     <t>phone_no</t>
   </si>
   <si>
-    <t>admin_role</t>
-  </si>
-  <si>
     <t>department</t>
   </si>
   <si>
     <t>faculty</t>
   </si>
   <si>
-    <t>designation</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
     <t>medicaps</t>
   </si>
   <si>
-    <t>teacher</t>
-  </si>
-  <si>
     <t>Second teacher</t>
   </si>
   <si>
@@ -70,9 +61,6 @@
   </si>
   <si>
     <t>CSE</t>
-  </si>
-  <si>
-    <t>Teacher</t>
   </si>
   <si>
     <t>Third teacher</t>
@@ -421,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,12 +421,11 @@
     <col min="2" max="2" width="42.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="8" max="8" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -460,22 +447,17 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>9874561231</v>
@@ -484,27 +466,22 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2">
         <v>9874561232</v>
@@ -513,27 +490,22 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
         <v>9874561233</v>
@@ -542,19 +514,14 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
@@ -563,9 +530,8 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
@@ -574,9 +540,8 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
@@ -585,9 +550,8 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
@@ -596,9 +560,8 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
@@ -607,9 +570,8 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
@@ -618,9 +580,8 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
@@ -629,9 +590,8 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
@@ -640,9 +600,8 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
@@ -651,9 +610,8 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
@@ -662,9 +620,8 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -673,9 +630,8 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -684,9 +640,8 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -695,9 +650,8 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -706,9 +660,8 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -717,9 +670,8 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -728,9 +680,8 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -739,7 +690,6 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/DATA SAMPLE/Upload Teacher.xlsx
+++ b/DATA SAMPLE/Upload Teacher.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New AMS\DATA SAMPLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE7B57F-9CF7-4A27-9264-DA1DF4680216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FAA5E0-D825-48D9-AAEC-84EE25C67D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -412,13 +412,13 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="42.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
     <col min="4" max="4" width="16.109375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>

--- a/DATA SAMPLE/Upload Teacher.xlsx
+++ b/DATA SAMPLE/Upload Teacher.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New AMS\DATA SAMPLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E61630-2510-4D27-AE54-548A275D3E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FCE234-9787-4794-A991-6F2D73C1A33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2148" yWindow="1440" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -678,7 +678,7 @@
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1234567</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -702,7 +702,7 @@
     </row>
     <row r="3" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1234567</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -726,7 +726,7 @@
     </row>
     <row r="4" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>1234567</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -750,7 +750,7 @@
     </row>
     <row r="5" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>1234567</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="6" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>1234567</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>15</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>1234567</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>16</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="8" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>1234567</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>17</v>
@@ -846,7 +846,7 @@
     </row>
     <row r="9" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>1234567</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="10" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>1234567</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>19</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>1234567</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>20</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="12" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>1234567</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="13" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>1234567</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
@@ -966,7 +966,7 @@
     </row>
     <row r="14" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>1234567</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -990,7 +990,7 @@
     </row>
     <row r="15" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>1234567</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>24</v>
@@ -1014,7 +1014,7 @@
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>1234567</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>25</v>
@@ -1038,7 +1038,7 @@
     </row>
     <row r="17" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>1234567</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>26</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="18" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>1234567</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>27</v>
@@ -1086,7 +1086,7 @@
     </row>
     <row r="19" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>1234567</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>28</v>
@@ -1110,7 +1110,7 @@
     </row>
     <row r="20" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>1234567</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>29</v>
@@ -1134,7 +1134,7 @@
     </row>
     <row r="21" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>1234567</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>30</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="22" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>1234567</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>31</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="23" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>1234567</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>32</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>1234567</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>33</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>1234567</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>34</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="26" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>1234567</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>35</v>
@@ -1273,7 +1273,7 @@
     </row>
     <row r="27" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>1234567</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>36</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="28" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>1234567</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>37</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="29" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>1234567</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>38</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>1234567</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>39</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="31" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>1234567</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>40</v>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>1234567</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>41</v>
@@ -1411,7 +1411,7 @@
     </row>
     <row r="33" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>1234567</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>42</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>1234567</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>43</v>
@@ -1457,7 +1457,7 @@
     </row>
     <row r="35" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>1234567</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>44</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="36" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>1234567</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>45</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="37" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>1234567</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>46</v>
@@ -1526,7 +1526,7 @@
     </row>
     <row r="38" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>1234567</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>47</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>1234567</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>48</v>
@@ -1572,7 +1572,7 @@
     </row>
     <row r="40" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>1234567</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>49</v>
@@ -1595,7 +1595,7 @@
     </row>
     <row r="41" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>1234567</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>50</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="42" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>1234567</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>51</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="43" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>1234567</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>52</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>1234567</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>53</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="45" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>1234567</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>54</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="46" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>1234567</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>55</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="47" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>1234567</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>56</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="48" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>1234567</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>57</v>
@@ -1779,7 +1779,7 @@
     </row>
     <row r="49" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>1234567</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>58</v>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="50" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>1234567</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>59</v>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="51" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>1234567</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>60</v>
@@ -1848,7 +1848,7 @@
     </row>
     <row r="52" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>1234567</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>61</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="53" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>1234567</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>62</v>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="54" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>1234567</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>63</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="55" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>1234567</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>64</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="56" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>1234567</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>65</v>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="57" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>1234567</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>66</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="58" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>1234567</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>67</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="59" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>1234567</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>68</v>
@@ -2032,7 +2032,7 @@
     </row>
     <row r="60" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>1234567</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>69</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="61" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>1234567</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>70</v>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="62" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>1234567</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>71</v>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="63" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>1234567</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>72</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="64" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>1234567</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>73</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="65" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>1234567</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>74</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="66" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>1234567</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>75</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="67" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>1234567</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>76</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="68" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>1234567</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>77</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="69" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>1234567</v>
+        <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>78</v>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="70" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>1234567</v>
+        <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>79</v>
@@ -2285,7 +2285,7 @@
     </row>
     <row r="71" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>1234567</v>
+        <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>80</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="72" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>1234567</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>81</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="73" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>1234567</v>
+        <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>82</v>
@@ -2354,7 +2354,7 @@
     </row>
     <row r="74" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>1234567</v>
+        <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>83</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="75" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>1234567</v>
+        <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>84</v>
@@ -2400,7 +2400,7 @@
     </row>
     <row r="76" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>1234567</v>
+        <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>85</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="77" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>1234567</v>
+        <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>86</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="78" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>1234567</v>
+        <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>87</v>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="79" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>1234567</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>88</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="80" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>1234567</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>89</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="81" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>1234567</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>90</v>
@@ -2538,7 +2538,7 @@
     </row>
     <row r="82" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>1234567</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>91</v>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="83" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>1234567</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>92</v>
@@ -2584,7 +2584,7 @@
     </row>
     <row r="84" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>1234567</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>93</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="85" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>1234567</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>94</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="86" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>1234567</v>
+        <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>95</v>
@@ -2653,7 +2653,7 @@
     </row>
     <row r="87" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>1234567</v>
+        <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>96</v>
@@ -2676,7 +2676,7 @@
     </row>
     <row r="88" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>1234567</v>
+        <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>97</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="89" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>1234567</v>
+        <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>98</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="90" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>1234567</v>
+        <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>99</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="91" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>1234567</v>
+        <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>100</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="92" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
-        <v>1234567</v>
+        <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>101</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="93" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
-        <v>1234567</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>102</v>
@@ -2814,7 +2814,7 @@
     </row>
     <row r="94" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
-        <v>1234567</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>103</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="95" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
-        <v>1234567</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>104</v>
@@ -2860,7 +2860,7 @@
     </row>
     <row r="96" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
-        <v>1234567</v>
+        <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>105</v>
@@ -2882,8 +2882,8 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>1234567</v>
+      <c r="A97" s="1">
+        <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>106</v>
@@ -2905,8 +2905,8 @@
       </c>
     </row>
     <row r="98" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>1234567</v>
+      <c r="A98" s="1">
+        <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>107</v>
@@ -2928,8 +2928,8 @@
       </c>
     </row>
     <row r="99" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>1234567</v>
+      <c r="A99" s="1">
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>108</v>
@@ -2951,8 +2951,8 @@
       </c>
     </row>
     <row r="100" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>1234567</v>
+      <c r="A100" s="1">
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>109</v>
